--- a/biology/Médecine/Simon_Baudichon/Simon_Baudichon.xlsx
+++ b/biology/Médecine/Simon_Baudichon/Simon_Baudichon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Baudichon, dit Simon Baldichius, est un médecin français du XVIe siècle, originaire du diocèse du Mans[Note 1], professeur au Collège royal de 1567 à 1577. Il serait mort en 1584.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bachelier le 12 mars 1554[1], il obtient sa licence de la Faculté de médecine de Paris le 18 mars 1555 avec une thèse intitulée : An ex suppressis hæmorroïdibus glabrities ?[2],[Note 2]. Il « reçoit le bonnet doctoral » en 1556[3].
-En 1568, Charles IX, « toujours plein de bienveillance à l'égard de son Collège royal », crée une seconde chaire de médecine, en faveur de Simon Baudichon[4].
-Cependant, converti au calvinisme, Simon Baudichon est convoqué le 30 juin 1568 devant le procureur général du roi pour être entendu avec Pierre de La Ramée et d'autres professeurs[5].  Le 8 octobre 1570, à la suite du traité de Paix de Saint-Germain-en-Laye, l’Université obtient des lettres patentes qui restreint le droit d’y enseigner aux seuls catholiques. Jacques Charpentier, doyen de la faculté de médecine, fait exclure Simon Baudichon et cinq autres docteurs-régents protestants. « Baudichon et ses collègues sont réintégrés de Charles IX lui-même ; le 17 mai 1571, ils obtinrent de celui-ci de nouvelles lettres patentes les réhabilitant dans tous leurs droits. La faculté de médecine dut les réintégrer mais les "dispensa" de faire des leçons[1]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bachelier le 12 mars 1554, il obtient sa licence de la Faculté de médecine de Paris le 18 mars 1555 avec une thèse intitulée : An ex suppressis hæmorroïdibus glabrities ?,[Note 2]. Il « reçoit le bonnet doctoral » en 1556.
+En 1568, Charles IX, « toujours plein de bienveillance à l'égard de son Collège royal », crée une seconde chaire de médecine, en faveur de Simon Baudichon.
+Cependant, converti au calvinisme, Simon Baudichon est convoqué le 30 juin 1568 devant le procureur général du roi pour être entendu avec Pierre de La Ramée et d'autres professeurs.  Le 8 octobre 1570, à la suite du traité de Paix de Saint-Germain-en-Laye, l’Université obtient des lettres patentes qui restreint le droit d’y enseigner aux seuls catholiques. Jacques Charpentier, doyen de la faculté de médecine, fait exclure Simon Baudichon et cinq autres docteurs-régents protestants. « Baudichon et ses collègues sont réintégrés de Charles IX lui-même ; le 17 mai 1571, ils obtinrent de celui-ci de nouvelles lettres patentes les réhabilitant dans tous leurs droits. La faculté de médecine dut les réintégrer mais les "dispensa" de faire des leçons. »
 Baudichon restera enseignant au Collège royal jusqu'en 1577.
 </t>
         </is>
